--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B265FA4-FB73-4C9A-A149-91BC39671524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EEA3DD-42AA-48D6-AB38-4D64B92EBB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="UserEmail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,16 +38,30 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>emailid</t>
+  </si>
+  <si>
+    <t>manuav@2003@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +84,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,7 +404,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{986A9DD2-1CDB-447E-96EE-E6247A5AD6AC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5223BDA8-FE77-4512-A101-A3B59B0F948F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{60DB9599-93E1-4930-8ED0-D5A467FD895E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EEA3DD-42AA-48D6-AB38-4D64B92EBB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28389A80-AEFA-4505-8D26-77AD576FF3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="UserEmail" sheetId="2" r:id="rId2"/>
+    <sheet name="UserManagementSubmenu" sheetId="3" r:id="rId3"/>
+    <sheet name="AddRole" sheetId="6" r:id="rId4"/>
+    <sheet name="searchkey" sheetId="4" r:id="rId5"/>
+    <sheet name="newuser" sheetId="5" r:id="rId6"/>
+    <sheet name="newAgent" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>username</t>
   </si>
@@ -43,7 +48,118 @@
     <t>emailid</t>
   </si>
   <si>
-    <t>manuav@2003@gmail.com</t>
+    <t>manuav2003@gmail.com</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>aster</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>confirm password</t>
+  </si>
+  <si>
+    <t>commission%</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>arun@gmail.com</t>
+  </si>
+  <si>
+    <t>Support Staff</t>
+  </si>
+  <si>
+    <t>arungeorge</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>veena</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>role namepermission</t>
+  </si>
+  <si>
+    <t>helper</t>
+  </si>
+  <si>
+    <t>veenash</t>
+  </si>
+  <si>
+    <t>veenashi@gmail.com</t>
+  </si>
+  <si>
+    <t>contactnum</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>mani@gmail.com</t>
+  </si>
+  <si>
+    <t>calicut</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>hemant</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>hemant@gmail.com</t>
+  </si>
+  <si>
+    <t>sales executive</t>
   </si>
 </sst>
 </file>
@@ -374,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,14 +521,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{986A9DD2-1CDB-447E-96EE-E6247A5AD6AC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -446,4 +557,305 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C422C4BD-A86B-4583-AE07-78D04E11392E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E00C5C-AA30-4F35-B8F1-59B78A851D39}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173A49D-7F66-4A58-965B-B19EFFDAF051}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>333345</v>
+      </c>
+      <c r="H5">
+        <v>333345</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3E69B79C-EB2A-40FE-A551-CF79AACA2DD0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{16402FC5-5531-42D0-BB5E-455C011149CA}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E85B06BE-2689-4EFF-B065-85F32E124CEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C51644-95D0-40FF-A59F-9FBC9DBAC847}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>3545667</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CE66DF0B-6810-4A60-85AB-805FDBDB0DB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28389A80-AEFA-4505-8D26-77AD576FF3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7ACB2-E20C-44C9-8604-8A75F14467A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="UserManagementSubmenu" sheetId="3" r:id="rId3"/>
     <sheet name="AddRole" sheetId="6" r:id="rId4"/>
     <sheet name="searchkey" sheetId="4" r:id="rId5"/>
-    <sheet name="newuser" sheetId="5" r:id="rId6"/>
-    <sheet name="newAgent" sheetId="7" r:id="rId7"/>
+    <sheet name="userTable" sheetId="8" r:id="rId6"/>
+    <sheet name="editUser" sheetId="10" r:id="rId7"/>
+    <sheet name="viewUserDetails" sheetId="11" r:id="rId8"/>
+    <sheet name="newuser" sheetId="5" r:id="rId9"/>
+    <sheet name="newAgent" sheetId="7" r:id="rId10"/>
+    <sheet name="agentTable" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>username</t>
   </si>
@@ -60,9 +64,6 @@
     <t>Sales Commission Agents</t>
   </si>
   <si>
-    <t>aster</t>
-  </si>
-  <si>
     <t>Prefix</t>
   </si>
   <si>
@@ -87,30 +88,15 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>arun</t>
-  </si>
-  <si>
     <t>george</t>
   </si>
   <si>
-    <t>arun@gmail.com</t>
-  </si>
-  <si>
     <t>Support Staff</t>
   </si>
   <si>
-    <t>arungeorge</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
-    <t>veena</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
     <t>abcdef</t>
   </si>
   <si>
@@ -123,27 +109,12 @@
     <t>helper</t>
   </si>
   <si>
-    <t>veenash</t>
-  </si>
-  <si>
-    <t>veenashi@gmail.com</t>
-  </si>
-  <si>
     <t>contactnum</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>mani@gmail.com</t>
-  </si>
-  <si>
     <t>calicut</t>
   </si>
   <si>
@@ -159,7 +130,85 @@
     <t>hemant@gmail.com</t>
   </si>
   <si>
-    <t>sales executive</t>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>mrs</t>
+  </si>
+  <si>
+    <t>annmary</t>
+  </si>
+  <si>
+    <t>annmarygeorge3@gmail.com</t>
+  </si>
+  <si>
+    <t>mrs annmary george</t>
+  </si>
+  <si>
+    <t>alen</t>
+  </si>
+  <si>
+    <t>alenmani@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr alen many</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>annmarygeor13</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>hemantsingh1</t>
+  </si>
+  <si>
+    <t>mrs ann george</t>
+  </si>
+  <si>
+    <t>annmarygeorge31@gmail.com</t>
+  </si>
+  <si>
+    <t>sanooja</t>
+  </si>
+  <si>
+    <t>beegum</t>
+  </si>
+  <si>
+    <t>sanooja@gmail.com</t>
+  </si>
+  <si>
+    <t>andrews2014@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr andrew george</t>
+  </si>
+  <si>
+    <t>Mrandrew</t>
+  </si>
+  <si>
+    <t>usernew</t>
+  </si>
+  <si>
+    <t>andrew22</t>
+  </si>
+  <si>
+    <t>sannoja13</t>
+  </si>
+  <si>
+    <t>miss veenas</t>
+  </si>
+  <si>
+    <t>veenas123</t>
+  </si>
+  <si>
+    <t>veena2021@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -204,9 +253,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,12 +578,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C51644-95D0-40FF-A59F-9FBC9DBAC847}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>3545667</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CE66DF0B-6810-4A60-85AB-805FDBDB0DB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C55911-3C4C-4A1D-81CB-2F753D49BC14}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1">
+        <v>3545667</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B1C2F706-FF51-42DF-8A2E-C0771DAB09C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5223BDA8-FE77-4512-A101-A3B59B0F948F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,12 +760,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -618,54 +777,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173A49D-7F66-4A58-965B-B19EFFDAF051}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A15FE2-3452-4F36-984D-DC4E478F1911}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{009F85BC-E52B-4966-8EF0-20355DD593A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E373B-7A98-4AA3-9214-56B235EB541E}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{2CB9971D-0D70-406E-8AEF-10029D3FDF3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AAF766-0109-47EB-A094-F97CD9FB0903}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2B701389-FC91-4FE1-8DBB-12083A285A9E}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{5B25F4AE-C4D1-4B81-B158-EF250ED0E9F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
     <col min="9" max="9" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -674,36 +993,36 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>123456</v>
-      </c>
-      <c r="H2">
-        <v>123456</v>
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
       </c>
       <c r="I2">
         <v>45</v>
@@ -711,28 +1030,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -740,10 +1059,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -754,22 +1073,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>333345</v>
@@ -779,6 +1098,35 @@
       </c>
       <c r="I5">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>111111</v>
+      </c>
+      <c r="H6">
+        <v>111111</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -786,75 +1134,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{3E69B79C-EB2A-40FE-A551-CF79AACA2DD0}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{16402FC5-5531-42D0-BB5E-455C011149CA}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{E85B06BE-2689-4EFF-B065-85F32E124CEE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C51644-95D0-40FF-A59F-9FBC9DBAC847}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>3545667</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CE66DF0B-6810-4A60-85AB-805FDBDB0DB4}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B931D3D3-EAB7-49EB-A6B2-C873939C5890}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7ACB2-E20C-44C9-8604-8A75F14467A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C815917-1FE3-4081-8ED1-D1C69973E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>username</t>
   </si>
@@ -142,12 +142,6 @@
     <t>annmary</t>
   </si>
   <si>
-    <t>annmarygeorge3@gmail.com</t>
-  </si>
-  <si>
-    <t>mrs annmary george</t>
-  </si>
-  <si>
     <t>alen</t>
   </si>
   <si>
@@ -160,15 +154,6 @@
     <t>many</t>
   </si>
   <si>
-    <t>annmarygeor13</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>hemantsingh1</t>
-  </si>
-  <si>
     <t>mrs ann george</t>
   </si>
   <si>
@@ -190,18 +175,9 @@
     <t>Mr andrew george</t>
   </si>
   <si>
-    <t>Mrandrew</t>
-  </si>
-  <si>
     <t>usernew</t>
   </si>
   <si>
-    <t>andrew22</t>
-  </si>
-  <si>
-    <t>sannoja13</t>
-  </si>
-  <si>
     <t>miss veenas</t>
   </si>
   <si>
@@ -209,6 +185,42 @@
   </si>
   <si>
     <t>veena2021@gmail.com</t>
+  </si>
+  <si>
+    <t>ms sanooja beegum</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>remya</t>
+  </si>
+  <si>
+    <t>haridas</t>
+  </si>
+  <si>
+    <t>remyah@gmail.com</t>
+  </si>
+  <si>
+    <t>Commission Agent</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>andrewg</t>
+  </si>
+  <si>
+    <t>sannoja15</t>
+  </si>
+  <si>
+    <t>Agent1</t>
+  </si>
+  <si>
+    <t>hemantsingh3</t>
+  </si>
+  <si>
+    <t>remyash</t>
   </si>
 </sst>
 </file>
@@ -583,7 +595,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,13 +633,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>3545667</v>
@@ -664,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1">
         <v>3545667</v>
@@ -788,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +810,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A15FE2-3452-4F36-984D-DC4E478F1911}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,9 +825,9 @@
     <col min="5" max="5" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
@@ -824,32 +836,12 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{009F85BC-E52B-4966-8EF0-20355DD593A3}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{B10937D6-D711-4259-B15C-11EB634B5F74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -860,7 +852,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,16 +865,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +891,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,42 +904,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2">
         <v>0.45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.45</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2B701389-FC91-4FE1-8DBB-12083A285A9E}"/>
-    <hyperlink ref="D1" r:id="rId2" xr:uid="{5B25F4AE-C4D1-4B81-B158-EF250ED0E9F4}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{5B25F4AE-C4D1-4B81-B158-EF250ED0E9F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -955,16 +933,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
     <col min="9" max="9" width="12.26953125" customWidth="1"/>
@@ -1010,13 +988,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1033,19 +1011,19 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1085,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>333345</v>
@@ -1111,13 +1089,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>111111</v>
@@ -1127,6 +1105,35 @@
       </c>
       <c r="I6">
         <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1135,6 +1142,7 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{16402FC5-5531-42D0-BB5E-455C011149CA}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{E85B06BE-2689-4EFF-B065-85F32E124CEE}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{B931D3D3-EAB7-49EB-A6B2-C873939C5890}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{69213809-281D-41A7-9168-A9741115A537}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C815917-1FE3-4081-8ED1-D1C69973E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A3A598-A14C-4724-A25A-6F4E447AD5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="UserEmail" sheetId="2" r:id="rId2"/>
     <sheet name="UserManagementSubmenu" sheetId="3" r:id="rId3"/>
-    <sheet name="AddRole" sheetId="6" r:id="rId4"/>
-    <sheet name="searchkey" sheetId="4" r:id="rId5"/>
-    <sheet name="userTable" sheetId="8" r:id="rId6"/>
-    <sheet name="editUser" sheetId="10" r:id="rId7"/>
-    <sheet name="viewUserDetails" sheetId="11" r:id="rId8"/>
-    <sheet name="newuser" sheetId="5" r:id="rId9"/>
-    <sheet name="newAgent" sheetId="7" r:id="rId10"/>
-    <sheet name="agentTable" sheetId="9" r:id="rId11"/>
+    <sheet name="userTable" sheetId="8" r:id="rId4"/>
+    <sheet name="viewUserDetails" sheetId="11" r:id="rId5"/>
+    <sheet name="newuser" sheetId="5" r:id="rId6"/>
+    <sheet name="newAgent" sheetId="7" r:id="rId7"/>
+    <sheet name="agentTable" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>username</t>
   </si>
@@ -103,12 +100,6 @@
     <t>ajay</t>
   </si>
   <si>
-    <t>role namepermission</t>
-  </si>
-  <si>
-    <t>helper</t>
-  </si>
-  <si>
     <t>contactnum</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>many</t>
   </si>
   <si>
-    <t>mrs ann george</t>
-  </si>
-  <si>
     <t>annmarygeorge31@gmail.com</t>
   </si>
   <si>
@@ -175,18 +163,6 @@
     <t>Mr andrew george</t>
   </si>
   <si>
-    <t>usernew</t>
-  </si>
-  <si>
-    <t>miss veenas</t>
-  </si>
-  <si>
-    <t>veenas123</t>
-  </si>
-  <si>
-    <t>veena2021@gmail.com</t>
-  </si>
-  <si>
     <t>ms sanooja beegum</t>
   </si>
   <si>
@@ -208,19 +184,22 @@
     <t>qwerty</t>
   </si>
   <si>
-    <t>andrewg</t>
-  </si>
-  <si>
-    <t>sannoja15</t>
-  </si>
-  <si>
     <t>Agent1</t>
   </si>
   <si>
-    <t>hemantsingh3</t>
-  </si>
-  <si>
-    <t>remyash</t>
+    <t>usernew2</t>
+  </si>
+  <si>
+    <t>sanooja23</t>
+  </si>
+  <si>
+    <t>andrews6</t>
+  </si>
+  <si>
+    <t>hemantsingh8</t>
+  </si>
+  <si>
+    <t>remya17</t>
   </si>
 </sst>
 </file>
@@ -590,7 +569,383 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5223BDA8-FE77-4512-A101-A3B59B0F948F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{60DB9599-93E1-4930-8ED0-D5A467FD895E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C422C4BD-A86B-4583-AE07-78D04E11392E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A15FE2-3452-4F36-984D-DC4E478F1911}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{B10937D6-D711-4259-B15C-11EB634B5F74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AAF766-0109-47EB-A094-F97CD9FB0903}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{5B25F4AE-C4D1-4B81-B158-EF250ED0E9F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>333345</v>
+      </c>
+      <c r="H5">
+        <v>333345</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>111111</v>
+      </c>
+      <c r="H6">
+        <v>111111</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3E69B79C-EB2A-40FE-A551-CF79AACA2DD0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{16402FC5-5531-42D0-BB5E-455C011149CA}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E85B06BE-2689-4EFF-B065-85F32E124CEE}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B931D3D3-EAB7-49EB-A6B2-C873939C5890}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{69213809-281D-41A7-9168-A9741115A537}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C51644-95D0-40FF-A59F-9FBC9DBAC847}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -619,10 +974,10 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -633,19 +988,19 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>3545667</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>56</v>
@@ -659,12 +1014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C55911-3C4C-4A1D-81CB-2F753D49BC14}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,16 +1031,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1">
         <v>3545667</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1">
         <v>56</v>
@@ -697,453 +1052,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5223BDA8-FE77-4512-A101-A3B59B0F948F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{60DB9599-93E1-4930-8ED0-D5A467FD895E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C422C4BD-A86B-4583-AE07-78D04E11392E}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E00C5C-AA30-4F35-B8F1-59B78A851D39}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173A49D-7F66-4A58-965B-B19EFFDAF051}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A15FE2-3452-4F36-984D-DC4E478F1911}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{B10937D6-D711-4259-B15C-11EB634B5F74}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E373B-7A98-4AA3-9214-56B235EB541E}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{2CB9971D-0D70-406E-8AEF-10029D3FDF3E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AAF766-0109-47EB-A094-F97CD9FB0903}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{5B25F4AE-C4D1-4B81-B158-EF250ED0E9F4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>333345</v>
-      </c>
-      <c r="H5">
-        <v>333345</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>111111</v>
-      </c>
-      <c r="H6">
-        <v>111111</v>
-      </c>
-      <c r="I6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3E69B79C-EB2A-40FE-A551-CF79AACA2DD0}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{16402FC5-5531-42D0-BB5E-455C011149CA}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{E85B06BE-2689-4EFF-B065-85F32E124CEE}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{B931D3D3-EAB7-49EB-A6B2-C873939C5890}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{69213809-281D-41A7-9168-A9741115A537}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A3A598-A14C-4724-A25A-6F4E447AD5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F714E-ECE5-41E4-88D4-C6C274D9B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="UserManagementSubmenu" sheetId="3" r:id="rId3"/>
     <sheet name="userTable" sheetId="8" r:id="rId4"/>
     <sheet name="viewUserDetails" sheetId="11" r:id="rId5"/>
-    <sheet name="newuser" sheetId="5" r:id="rId6"/>
-    <sheet name="newAgent" sheetId="7" r:id="rId7"/>
-    <sheet name="agentTable" sheetId="9" r:id="rId8"/>
+    <sheet name="sidebar" sheetId="12" r:id="rId6"/>
+    <sheet name="Rolesidebar" sheetId="13" r:id="rId7"/>
+    <sheet name="newuser" sheetId="5" r:id="rId8"/>
+    <sheet name="newAgent" sheetId="7" r:id="rId9"/>
+    <sheet name="agentTable" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>username</t>
   </si>
@@ -190,16 +192,58 @@
     <t>usernew2</t>
   </si>
   <si>
-    <t>sanooja23</t>
-  </si>
-  <si>
-    <t>andrews6</t>
-  </si>
-  <si>
-    <t>hemantsingh8</t>
-  </si>
-  <si>
-    <t>remya17</t>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Stock Transfers</t>
+  </si>
+  <si>
+    <t>Notification Templates</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Stock Adjustment</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Payment Accounts</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>sanooja202@gmail.com</t>
+  </si>
+  <si>
+    <t>sanooja35</t>
+  </si>
+  <si>
+    <t>sanooja36</t>
+  </si>
+  <si>
+    <t>andrews30</t>
+  </si>
+  <si>
+    <t>hemantsingh82</t>
+  </si>
+  <si>
+    <t>remya29</t>
   </si>
 </sst>
 </file>
@@ -569,6 +613,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C55911-3C4C-4A1D-81CB-2F753D49BC14}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <v>3545667</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B1C2F706-FF51-42DF-8A2E-C0771DAB09C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5223BDA8-FE77-4512-A101-A3B59B0F948F}">
   <dimension ref="A1:A2"/>
@@ -632,10 +716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A15FE2-3452-4F36-984D-DC4E478F1911}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -663,7 +747,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -673,11 +757,26 @@
       </c>
       <c r="D2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{B10937D6-D711-4259-B15C-11EB634B5F74}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{379E8244-D3DA-4C1F-BF59-769BB9A1727D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,9 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AAF766-0109-47EB-A094-F97CD9FB0903}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -701,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -729,10 +826,113 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E435BE7-01A8-44EF-BE1C-B6DE7758638B}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E227E41B-4167-48FA-ABE7-B89F7B65B6A2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -820,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -863,7 +1063,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>333345</v>
@@ -921,7 +1121,7 @@
         <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -945,7 +1145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C51644-95D0-40FF-A59F-9FBC9DBAC847}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1012,44 +1212,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C55911-3C4C-4A1D-81CB-2F753D49BC14}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1">
-        <v>3545667</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{B1C2F706-FF51-42DF-8A2E-C0771DAB09C2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/target/classes/BuffalocartTestData.xlsx
+++ b/target/classes/BuffalocartTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manua\eclipse-workspace\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F714E-ECE5-41E4-88D4-C6C274D9B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645C8C6-FB06-440A-9CC2-057A419C5ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>username</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Agent1</t>
   </si>
   <si>
-    <t>usernew2</t>
-  </si>
-  <si>
     <t>User Management</t>
   </si>
   <si>
@@ -231,19 +228,97 @@
     <t>sanooja202@gmail.com</t>
   </si>
   <si>
-    <t>sanooja35</t>
-  </si>
-  <si>
-    <t>sanooja36</t>
-  </si>
-  <si>
-    <t>andrews30</t>
-  </si>
-  <si>
-    <t>hemantsingh82</t>
-  </si>
-  <si>
-    <t>remya29</t>
+    <t>mrs annmary george</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>mathew</t>
+  </si>
+  <si>
+    <t>paul@gmail.com</t>
+  </si>
+  <si>
+    <t>mr paul mathew</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>manuav@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>pillai</t>
+  </si>
+  <si>
+    <t>ravi@gmail.com</t>
+  </si>
+  <si>
+    <t>minu</t>
+  </si>
+  <si>
+    <t>varghese</t>
+  </si>
+  <si>
+    <t>minu@gmail.com</t>
+  </si>
+  <si>
+    <t>miss minu varghese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">praveen </t>
+  </si>
+  <si>
+    <t>praveen@gmail.com</t>
+  </si>
+  <si>
+    <t>pbvr</t>
+  </si>
+  <si>
+    <t>Mr praveen vijay</t>
+  </si>
+  <si>
+    <t>Mrs reshma rajan</t>
+  </si>
+  <si>
+    <t>reshma@gmail.com</t>
+  </si>
+  <si>
+    <t>reshma</t>
+  </si>
+  <si>
+    <t>rajan</t>
+  </si>
+  <si>
+    <t>sanooja54</t>
+  </si>
+  <si>
+    <t>andrews48</t>
+  </si>
+  <si>
+    <t>paul21</t>
+  </si>
+  <si>
+    <t>minu17</t>
+  </si>
+  <si>
+    <t>usernew24</t>
+  </si>
+  <si>
+    <t>hemant12</t>
+  </si>
+  <si>
+    <t>manuav16</t>
   </si>
 </sst>
 </file>
@@ -288,10 +363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,7 +654,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,8 +671,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -615,15 +693,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C55911-3C4C-4A1D-81CB-2F753D49BC14}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
@@ -645,9 +723,45 @@
         <v>56</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>34098833</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>3545667</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{B1C2F706-FF51-42DF-8A2E-C0771DAB09C2}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{ECCB0F13-0221-4921-939A-2C5116C0487A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{6C1A8E5E-14E0-4A36-8773-760660702A5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -689,10 +803,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -716,10 +833,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A15FE2-3452-4F36-984D-DC4E478F1911}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -747,7 +864,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -761,7 +878,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -770,13 +887,43 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{B10937D6-D711-4259-B15C-11EB634B5F74}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{379E8244-D3DA-4C1F-BF59-769BB9A1727D}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{555B80EF-B393-4CA3-B24A-F9B29C7B7C7F}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{4A6E061C-AE12-4B59-B9C6-BE707BA73152}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -786,7 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AAF766-0109-47EB-A094-F97CD9FB0903}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -798,7 +947,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -814,12 +963,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{5B25F4AE-C4D1-4B81-B158-EF250ED0E9F4}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{A8E496C6-CF05-4A00-A3D4-3D4313B767B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -840,62 +1003,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -915,12 +1078,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6D309-E0E2-4B3F-817D-15CCC2421FD4}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1020,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1063,7 +1226,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>333345</v>
@@ -1092,7 +1255,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>111111</v>
@@ -1120,9 +1283,6 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
@@ -1131,6 +1291,124 @@
       </c>
       <c r="I7">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>123456</v>
+      </c>
+      <c r="H8">
+        <v>123456</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>111111</v>
+      </c>
+      <c r="H10">
+        <v>111111</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1140,6 +1418,10 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{E85B06BE-2689-4EFF-B065-85F32E124CEE}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{B931D3D3-EAB7-49EB-A6B2-C873939C5890}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{69213809-281D-41A7-9168-A9741115A537}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{D3692483-430A-43CD-BE4F-3ABC31A6D2D0}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{F970E3A0-2D11-4CCA-9CE6-5E28D4934958}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{78C5ADC0-29F0-4E0E-8BD5-68A2EDAC3A89}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{C259D17A-C8FC-4D57-BBCF-25B7580EE11C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1147,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C51644-95D0-40FF-A59F-9FBC9DBAC847}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1206,9 +1488,57 @@
         <v>56</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <v>34098833</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>3545667</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{CE66DF0B-6810-4A60-85AB-805FDBDB0DB4}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{641D1305-8027-461D-B364-69B60F33F9A9}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{BB526421-9A5C-44E5-858C-607942925E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
